--- a/downloaded_files/AERS414_Lecture-35794.xlsx
+++ b/downloaded_files/AERS414_Lecture-35794.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -40,6 +40,15 @@
   </x:si>
   <x:si>
     <x:t>Ibrahim Hesham Ibrahim Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4190266</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد جاسر محمد ربيع الشعراوى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AHMED GASSER MOHAMED RABEE EL-SHAARAWY</x:t>
   </x:si>
   <x:si>
     <x:t>4220148</x:t>
@@ -254,7 +263,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E14" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -554,7 +563,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T13"/>
+  <x:dimension ref="A1:T14"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -563,8 +572,8 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="31.650625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="45.120625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="44.780625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -677,7 +686,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.750071956</x:v>
+        <x:v>45927.5838510069</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -709,7 +718,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.8015656597</x:v>
+        <x:v>45906.750071956</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -741,7 +750,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.6668329861</x:v>
+        <x:v>45906.8015656597</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -773,7 +782,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6870177431</x:v>
+        <x:v>45906.6668329861</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -805,7 +814,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6684097569</x:v>
+        <x:v>45906.6870177431</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -837,7 +846,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45909.5127675926</x:v>
+        <x:v>45906.6684097569</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -869,7 +878,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.5515322917</x:v>
+        <x:v>45909.5127675926</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -901,7 +910,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6698400463</x:v>
+        <x:v>45906.5515322917</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -933,7 +942,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6668108796</x:v>
+        <x:v>45906.6698400463</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -965,7 +974,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6678039005</x:v>
+        <x:v>45906.6668108796</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -997,7 +1006,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6732090625</x:v>
+        <x:v>45906.6678039005</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1014,6 +1023,38 @@
       <x:c r="R13" s="2" t="s"/>
       <x:c r="S13" s="2" t="s"/>
       <x:c r="T13" s="2" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:20">
+      <x:c r="A14" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D14" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E14" s="3">
+        <x:v>45906.6732090625</x:v>
+      </x:c>
+      <x:c r="F14" s="2" t="s"/>
+      <x:c r="G14" s="2" t="s"/>
+      <x:c r="H14" s="2" t="s"/>
+      <x:c r="I14" s="2" t="s"/>
+      <x:c r="J14" s="2" t="s"/>
+      <x:c r="K14" s="2" t="s"/>
+      <x:c r="L14" s="2" t="s"/>
+      <x:c r="M14" s="2" t="s"/>
+      <x:c r="N14" s="2" t="s"/>
+      <x:c r="O14" s="2" t="s"/>
+      <x:c r="P14" s="2" t="s"/>
+      <x:c r="Q14" s="2" t="s"/>
+      <x:c r="R14" s="2" t="s"/>
+      <x:c r="S14" s="2" t="s"/>
+      <x:c r="T14" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/AERS414_Lecture-35794.xlsx
+++ b/downloaded_files/AERS414_Lecture-35794.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -121,6 +121,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Hesham</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250464</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد نجم عواد محمد عيسى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1210035</x:t>
@@ -263,7 +272,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E14" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -563,7 +572,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T14"/>
+  <x:dimension ref="A1:T15"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -974,7 +983,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6668108796</x:v>
+        <x:v>45945.4025726042</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1006,7 +1015,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6678039005</x:v>
+        <x:v>45906.6668108796</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1038,7 +1047,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6732090625</x:v>
+        <x:v>45906.6678039005</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1055,6 +1064,38 @@
       <x:c r="R14" s="2" t="s"/>
       <x:c r="S14" s="2" t="s"/>
       <x:c r="T14" s="2" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:20">
+      <x:c r="A15" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D15" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E15" s="3">
+        <x:v>45906.6732090625</x:v>
+      </x:c>
+      <x:c r="F15" s="2" t="s"/>
+      <x:c r="G15" s="2" t="s"/>
+      <x:c r="H15" s="2" t="s"/>
+      <x:c r="I15" s="2" t="s"/>
+      <x:c r="J15" s="2" t="s"/>
+      <x:c r="K15" s="2" t="s"/>
+      <x:c r="L15" s="2" t="s"/>
+      <x:c r="M15" s="2" t="s"/>
+      <x:c r="N15" s="2" t="s"/>
+      <x:c r="O15" s="2" t="s"/>
+      <x:c r="P15" s="2" t="s"/>
+      <x:c r="Q15" s="2" t="s"/>
+      <x:c r="R15" s="2" t="s"/>
+      <x:c r="S15" s="2" t="s"/>
+      <x:c r="T15" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
